--- a/利润表/605377.xlsx
+++ b/利润表/605377.xlsx
@@ -714,14 +714,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -734,47 +734,43 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2019-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>125352901.45</v>
+        <v>111398480.1</v>
       </c>
       <c r="P2" t="n">
-        <v>1924539259.53</v>
+        <v>1257750471.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>1792006797.66</v>
-      </c>
-      <c r="R2" t="n">
-        <v>8.491851109800001</v>
-      </c>
+        <v>1134168326.99</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>1638524254.36</v>
+        <v>1033846048.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1638524254.36</v>
-      </c>
-      <c r="U2" t="n">
-        <v>10.7181697653</v>
-      </c>
+        <v>1033846048.8</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>39633833.58</v>
+        <v>28350906.01</v>
       </c>
       <c r="W2" t="n">
-        <v>19842670.1</v>
+        <v>13263087.91</v>
       </c>
       <c r="X2" t="n">
-        <v>36158048.64</v>
+        <v>17156298.84</v>
       </c>
       <c r="Y2" t="n">
-        <v>136813149.11</v>
+        <v>132563315.45</v>
       </c>
       <c r="Z2" t="n">
-        <v>137595626.3</v>
+        <v>132429619.09</v>
       </c>
       <c r="AA2" t="n">
-        <v>12242724.85</v>
+        <v>21030275.44</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +778,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>8599960.199999999</v>
+        <v>5378883.03</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -792,21 +788,13 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>5.1505261209</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>-25.740073413878</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-20.066184207006</v>
-      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>122664701.45</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-23.475876308683</v>
-      </c>
+        <v>108158280.1</v>
+      </c>
+      <c r="AT2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/利润表/605377.xlsx
+++ b/利润表/605377.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,48 +729,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-09 00:00:00</t>
+          <t>2020-12-16 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-09-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>111398480.1</v>
+        <v>170787524.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1257750471.36</v>
+        <v>1654020988.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1134168326.99</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>1484836060.35</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-17.1411591581</v>
+      </c>
       <c r="S2" t="n">
-        <v>1033846048.8</v>
+        <v>1352291071.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1033846048.8</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>1352291071.35</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-17.4689622231</v>
+      </c>
       <c r="V2" t="n">
-        <v>28350906.01</v>
+        <v>37948854.87</v>
       </c>
       <c r="W2" t="n">
-        <v>13263087.91</v>
+        <v>20883482.3</v>
       </c>
       <c r="X2" t="n">
-        <v>17156298.84</v>
+        <v>19468483.32</v>
       </c>
       <c r="Y2" t="n">
-        <v>132563315.45</v>
+        <v>194180217.99</v>
       </c>
       <c r="Z2" t="n">
-        <v>132429619.09</v>
+        <v>193572092.06</v>
       </c>
       <c r="AA2" t="n">
-        <v>21030275.44</v>
+        <v>22732789.55</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>5378883.03</v>
+        <v>5762868.3</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -788,13 +792,21 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>-14.0562614823</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>41.930961499816</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>36.245369994984</v>
+      </c>
       <c r="AS2" t="n">
-        <v>108158280.1</v>
-      </c>
-      <c r="AT2" t="inlineStr"/>
+        <v>165255024.38</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>34.720908335118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/利润表/605377.xlsx
+++ b/利润表/605377.xlsx
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>170787524.38</v>
+        <v>125352901.45</v>
       </c>
       <c r="P2" t="n">
-        <v>1654020988.88</v>
+        <v>1924539259.53</v>
       </c>
       <c r="Q2" t="n">
-        <v>1484836060.35</v>
+        <v>1792006797.66</v>
       </c>
       <c r="R2" t="n">
-        <v>-17.1411591581</v>
+        <v>8.491851109800001</v>
       </c>
       <c r="S2" t="n">
-        <v>1352291071.35</v>
+        <v>1638524254.36</v>
       </c>
       <c r="T2" t="n">
-        <v>1352291071.35</v>
+        <v>1638524254.36</v>
       </c>
       <c r="U2" t="n">
-        <v>-17.4689622231</v>
+        <v>10.7181697653</v>
       </c>
       <c r="V2" t="n">
-        <v>37948854.87</v>
+        <v>39633833.58</v>
       </c>
       <c r="W2" t="n">
-        <v>20883482.3</v>
+        <v>19842670.1</v>
       </c>
       <c r="X2" t="n">
-        <v>19468483.32</v>
+        <v>36158048.64</v>
       </c>
       <c r="Y2" t="n">
-        <v>194180217.99</v>
+        <v>136813149.11</v>
       </c>
       <c r="Z2" t="n">
-        <v>193572092.06</v>
+        <v>137595626.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>22732789.55</v>
+        <v>12242724.85</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>5762868.3</v>
+        <v>8599960.199999999</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>-14.0562614823</v>
+        <v>5.1505261209</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41.930961499816</v>
+        <v>-25.740073413878</v>
       </c>
       <c r="AR2" t="n">
-        <v>36.245369994984</v>
+        <v>-20.066184207006</v>
       </c>
       <c r="AS2" t="n">
-        <v>165255024.38</v>
+        <v>122664701.45</v>
       </c>
       <c r="AT2" t="n">
-        <v>34.720908335118</v>
+        <v>-23.475876308683</v>
       </c>
     </row>
   </sheetData>
